--- a/附件/result3.xlsx
+++ b/附件/result3.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2024-5-1\数学建模竞赛组委会、专家组工作\竞赛2025\A题-烟幕干扰弹投放策略\2025-8-25 A题(蔡志杰)\附件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mio/github/MathModeling25/附件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C236CD6-1B49-404B-932D-9472C56F736E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCE9A59-930C-2C43-BADF-3D603E8A9CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>无人机编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +107,24 @@
   </si>
   <si>
     <t>FY5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +132,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,7 +174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -157,6 +186,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,17 +526,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" customWidth="1"/>
-    <col min="2" max="4" width="16.58203125" customWidth="1"/>
-    <col min="5" max="11" width="14.58203125" customWidth="1"/>
-    <col min="12" max="12" width="16.58203125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,127 +576,367 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B2" s="4">
+        <v>179.65237389000001</v>
+      </c>
+      <c r="C2" s="4">
+        <v>139.95298839</v>
+      </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>17798.64</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>1800</v>
+      </c>
+      <c r="H2">
+        <v>17292.22</v>
+      </c>
+      <c r="I2">
+        <v>3.08</v>
+      </c>
+      <c r="J2">
+        <v>1735.84</v>
+      </c>
+      <c r="K2">
+        <v>3.9037999999999999</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B3" s="4">
+        <v>179.65237389000001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>139.95298839</v>
+      </c>
       <c r="D3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>17273.95</v>
+      </c>
+      <c r="F3">
+        <v>3.19</v>
+      </c>
+      <c r="G3">
+        <v>1800</v>
+      </c>
+      <c r="H3">
+        <v>16523.53</v>
+      </c>
+      <c r="I3">
+        <v>7.74</v>
+      </c>
+      <c r="J3">
+        <v>1659.12</v>
+      </c>
+      <c r="K3">
+        <v>2.6025</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B4" s="4">
+        <v>179.65237389000001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>139.95298839</v>
+      </c>
       <c r="D4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>17010.62</v>
+      </c>
+      <c r="F4">
+        <v>4.79</v>
+      </c>
+      <c r="G4">
+        <v>1800</v>
+      </c>
+      <c r="H4">
+        <v>16159.31</v>
+      </c>
+      <c r="I4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J4">
+        <v>1618.69</v>
+      </c>
+      <c r="K4">
+        <v>1.1453</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B5" s="4">
+        <v>293.12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>137.97</v>
+      </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>12192.48</v>
+      </c>
+      <c r="F5">
+        <v>949.2</v>
+      </c>
+      <c r="G5">
+        <v>1400</v>
+      </c>
+      <c r="H5">
+        <v>12693.82</v>
+      </c>
+      <c r="I5">
+        <v>-224.96</v>
+      </c>
+      <c r="J5">
+        <v>980.43</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B6" s="4">
+        <v>293.12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>137.97</v>
+      </c>
       <c r="D6" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>12297.4</v>
+      </c>
+      <c r="F6">
+        <v>703.48</v>
+      </c>
+      <c r="G6">
+        <v>1400</v>
+      </c>
+      <c r="H6">
+        <v>12410.68</v>
+      </c>
+      <c r="I6">
+        <v>438.17</v>
+      </c>
+      <c r="J6">
+        <v>1378.58</v>
+      </c>
+      <c r="K6">
+        <v>3.95</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B7" s="4">
+        <v>293.12</v>
+      </c>
+      <c r="C7" s="4">
+        <v>137.97</v>
+      </c>
       <c r="D7" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>12356.72</v>
+      </c>
+      <c r="F7">
+        <v>564.54</v>
+      </c>
+      <c r="G7">
+        <v>1400</v>
+      </c>
+      <c r="H7">
+        <v>12417.32</v>
+      </c>
+      <c r="I7">
+        <v>422.62</v>
+      </c>
+      <c r="J7">
+        <v>1393.87</v>
+      </c>
+      <c r="K7">
+        <v>3.86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>3.16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>3.82</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>3.75</v>
+      </c>
+      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>12</v>

--- a/附件/result3.xlsx
+++ b/附件/result3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mio/github/MathModeling25/附件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCE9A59-930C-2C43-BADF-3D603E8A9CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BFA2FD-8D7E-C240-ADBE-5A4ACED96CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>无人机编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,9 +108,6 @@
   <si>
     <t>FY5</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M1</t>
@@ -160,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -168,13 +165,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,6 +195,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,7 +536,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -611,7 +620,7 @@
         <v>3.9037999999999999</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -649,7 +658,7 @@
         <v>2.6025</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -687,7 +696,7 @@
         <v>1.1453</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -704,28 +713,28 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>12192.48</v>
+        <v>12297.4</v>
       </c>
       <c r="F5">
-        <v>949.2</v>
+        <v>703.48</v>
       </c>
       <c r="G5">
         <v>1400</v>
       </c>
       <c r="H5">
-        <v>12693.82</v>
+        <v>12410.68</v>
       </c>
       <c r="I5">
-        <v>-224.96</v>
+        <v>438.17</v>
       </c>
       <c r="J5">
-        <v>980.43</v>
+        <v>1378.58</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -742,28 +751,28 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>12297.4</v>
+        <v>12356.72</v>
       </c>
       <c r="F6">
-        <v>703.48</v>
+        <v>564.54</v>
       </c>
       <c r="G6">
         <v>1400</v>
       </c>
       <c r="H6">
-        <v>12410.68</v>
+        <v>12417.32</v>
       </c>
       <c r="I6">
-        <v>438.17</v>
+        <v>422.62</v>
       </c>
       <c r="J6">
-        <v>1378.58</v>
+        <v>1393.87</v>
       </c>
       <c r="K6">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -779,170 +788,283 @@
       <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>12356.72</v>
-      </c>
-      <c r="F7">
-        <v>564.54</v>
-      </c>
-      <c r="G7">
-        <v>1400</v>
-      </c>
-      <c r="H7">
-        <v>12417.32</v>
-      </c>
-      <c r="I7">
-        <v>422.62</v>
-      </c>
-      <c r="J7">
-        <v>1393.87</v>
-      </c>
-      <c r="K7">
-        <v>3.86</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="4">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="C8" s="4">
+        <v>137.6</v>
+      </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
+      <c r="E8">
+        <v>6821.96</v>
+      </c>
+      <c r="F8">
+        <v>-65.5</v>
+      </c>
+      <c r="G8">
+        <v>700</v>
+      </c>
+      <c r="H8">
+        <v>6865.65</v>
+      </c>
+      <c r="I8">
+        <v>90.48</v>
+      </c>
+      <c r="J8">
+        <v>693.21</v>
+      </c>
       <c r="K8">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="4">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="C9" s="4">
+        <v>137.6</v>
+      </c>
       <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="K9">
-        <v>3.16</v>
-      </c>
-      <c r="L9" t="s">
-        <v>19</v>
-      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="4">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="C10" s="4">
+        <v>137.6</v>
+      </c>
       <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B11">
+        <v>300.16000000000003</v>
+      </c>
+      <c r="C11" s="4">
+        <v>136.84</v>
+      </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
+      <c r="E11">
+        <v>11396.01</v>
+      </c>
+      <c r="F11">
+        <v>1318.5</v>
+      </c>
+      <c r="G11">
+        <v>1800</v>
+      </c>
+      <c r="H11">
+        <v>12143.54</v>
+      </c>
+      <c r="I11">
+        <v>32.08</v>
+      </c>
+      <c r="J11">
+        <v>1220.74</v>
+      </c>
       <c r="K11">
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B12">
+        <v>300.16000000000003</v>
+      </c>
+      <c r="C12" s="4">
+        <v>136.84</v>
+      </c>
       <c r="D12" s="3">
         <v>2</v>
       </c>
-      <c r="K12">
-        <v>3.82</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
-      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B13">
+        <v>300.16000000000003</v>
+      </c>
+      <c r="C13" s="4">
+        <v>136.84</v>
+      </c>
       <c r="D13" s="3">
         <v>3</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>18</v>
-      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B14">
+        <v>115.99</v>
+      </c>
+      <c r="C14" s="4">
+        <v>139.78</v>
+      </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
+      <c r="E14">
+        <v>12274.8</v>
+      </c>
+      <c r="F14">
+        <v>-512.51</v>
+      </c>
+      <c r="G14">
+        <v>1300</v>
+      </c>
+      <c r="H14">
+        <v>12213.44</v>
+      </c>
+      <c r="I14">
+        <v>-386.66</v>
+      </c>
+      <c r="J14">
+        <v>1295.08</v>
+      </c>
       <c r="K14">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B15">
+        <v>115.99</v>
+      </c>
+      <c r="C15" s="4">
+        <v>139.78</v>
+      </c>
       <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>22</v>
-      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B16">
+        <v>115.99</v>
+      </c>
+      <c r="C16" s="4">
+        <v>139.78</v>
+      </c>
       <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="K16">
-        <v>3.75</v>
-      </c>
-      <c r="L16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="60" customHeight="1">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="K17">
+        <f>SUM(K2:K16)</f>
+        <v>26.191600000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="60" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="E15:L15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
